--- a/data/xls/2011-03-01/COMPLETED_20110601-EERR8-repweb-Oct10-Mar11-iNova.xlsx
+++ b/data/xls/2011-03-01/COMPLETED_20110601-EERR8-repweb-Oct10-Mar11-iNova.xlsx
@@ -1,27 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23206"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325"/>
+    <workbookView xWindow="120" yWindow="20" windowWidth="18960" windowHeight="11320"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="67">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Summary of Events sponsored by Member Companies:</t>
+      <t>Summary of Events sponsored by Member Companies:</t>
     </r>
   </si>
   <si>
@@ -30,16 +35,16 @@
         <sz val="12"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Reporting Period (October 2010 - March 2011)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">iNova Pharmaceuticals (Aus) Pty Ltd</t>
+      <t>Reporting Period (October 2010 - March 2011)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>iNova Pharmaceuticals (Aus) Pty Ltd</t>
     </r>
   </si>
   <si>
@@ -56,159 +61,79 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">of Events</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">CPD/CME</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Attendance</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Hospitality</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Total cost of
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Function</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Total number of events held</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Total points for all events - this does not include the trade shows and sponsored conferences</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Total number of healthcare professionals attending all educational events.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Total spend on hospitality</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Total spend for all events</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">197</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$  15,725.03</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$20,306.87</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">October</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">2010</t>
+      <t>of Events</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Attendance</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Total number of events held</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Total number of healthcare professionals attending all educational events.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>197</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>October</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>2010</t>
     </r>
   </si>
   <si>
@@ -225,25 +150,25 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Educational Content including description of agenda</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Venue</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Professional Status of Attendees</t>
+      <t>Educational Content including description of agenda</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Venue</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Professional Status of Attendees</t>
     </r>
   </si>
   <si>
@@ -260,16 +185,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Provided</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Total Cost of Hospitality single</t>
+      <t>Provided</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Total Cost of Hospitality single</t>
     </r>
   </si>
   <si>
@@ -286,16 +211,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Number</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Total Function Cost</t>
+      <t>Number</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Total Function Cost</t>
     </r>
   </si>
   <si>
@@ -328,7 +253,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">speaker and the venue.</t>
+      <t>speaker and the venue.</t>
     </r>
   </si>
   <si>
@@ -345,7 +270,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Hospital</t>
+      <t>Hospital</t>
     </r>
   </si>
   <si>
@@ -362,7 +287,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Practitioners</t>
+      <t>Practitioners</t>
     </r>
   </si>
   <si>
@@ -379,16 +304,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Only</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">14</t>
+      <t>Only</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>14</t>
     </r>
   </si>
   <si>
@@ -421,16 +346,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">was organised by West Victorian Division of General Practice and iNova was not responsible for inviting the attendees or organising the educational content the accom or travel.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">November</t>
+      <t>was organised by West Victorian Division of General Practice and iNova was not responsible for inviting the attendees or organising the educational content the accom or travel.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>November</t>
     </r>
   </si>
   <si>
@@ -479,16 +404,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Presentation Close and Dinner</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Jorg Restaurant Fitzroy North</t>
+      <t>Presentation Close and Dinner</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Jorg Restaurant Fitzroy North</t>
     </r>
   </si>
   <si>
@@ -505,7 +430,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Practitioner</t>
+      <t>Practitioner</t>
     </r>
   </si>
   <si>
@@ -522,25 +447,25 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Dinner Desert and Beverages</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">1757.70</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">22</t>
+      <t>Dinner Desert and Beverages</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>1757.70</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>22</t>
     </r>
   </si>
   <si>
@@ -621,7 +546,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">2555.35</t>
+      <t>2555.35</t>
     </r>
   </si>
   <si>
@@ -670,34 +595,34 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Presentation Close and Dinner</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Masani Restaurant Carlton</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">1744.58</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">23</t>
+      <t>Presentation Close and Dinner</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Masani Restaurant Carlton</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>1744.58</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>23</t>
     </r>
   </si>
   <si>
@@ -794,7 +719,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">$3336.40</t>
+      <t>$3336.40</t>
     </r>
   </si>
   <si>
@@ -843,7 +768,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Presentation Close and Dinner</t>
+      <t>Presentation Close and Dinner</t>
     </r>
   </si>
   <si>
@@ -860,25 +785,25 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Morwell</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">707.50</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">12</t>
+      <t>Morwell</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>707.50</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>12</t>
     </r>
   </si>
   <si>
@@ -943,25 +868,25 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">$778.25</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">SUMMARY OF EVENTS SPONSORED BY iNOVA PHARMACEUTICALS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">December</t>
+      <t>$778.25</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>SUMMARY OF EVENTS SPONSORED BY iNOVA PHARMACEUTICALS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>December</t>
     </r>
   </si>
   <si>
@@ -978,34 +903,34 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Provided</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">January</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">2011</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">February</t>
+      <t>Provided</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>January</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>2011</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>February</t>
     </r>
   </si>
   <si>
@@ -1046,16 +971,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Presentation Close and Dinner</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Boathouse by the Lake Barton</t>
+      <t>Presentation Close and Dinner</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Boathouse by the Lake Barton</t>
     </r>
   </si>
   <si>
@@ -1072,25 +997,25 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">beverages</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">3787.38</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">48</t>
+      <t>beverages</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>3787.38</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>48</t>
     </r>
   </si>
   <si>
@@ -1171,16 +1096,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">4116.28</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">March</t>
+      <t>4116.28</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>March</t>
     </r>
   </si>
   <si>
@@ -1213,43 +1138,43 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Presentation Close and Dinner</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Crowne Plaza Norwest</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Entrée, Main Meal, Dessert and Beverages</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">2428.82</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">28</t>
+      <t>Presentation Close and Dinner</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Crowne Plaza Norwest</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Entrée, Main Meal, Dessert and Beverages</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>2428.82</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>28</t>
     </r>
   </si>
   <si>
@@ -1330,7 +1255,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">$3315.56</t>
+      <t>$3315.56</t>
     </r>
   </si>
   <si>
@@ -1363,34 +1288,34 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Presentation Close and Dinner</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Glasshouse Reception Lounge The Entrance</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">5299.05</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">50</t>
+      <t>Presentation Close and Dinner</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Glasshouse Reception Lounge The Entrance</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>5299.05</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>50</t>
     </r>
   </si>
   <si>
@@ -1455,21 +1380,28 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">5405.03</t>
+      <t>5405.03</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
-      <color rgb="#000000"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1549,84 +1481,87 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
-    <xf numFmtId="0" fillId="2" borderId="0" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="27">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fillId="2" borderId="0" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fillId="2" borderId="1" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="2" borderId="1" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="2" borderId="2" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="2" borderId="3" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="2" borderId="4" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="2" borderId="2" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="2" borderId="4" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="2" borderId="3" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="2" borderId="1" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="2" borderId="2" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="2" borderId="3" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="2" borderId="4" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="2" borderId="1" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="2" borderId="2" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="2" borderId="4" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="2" borderId="1" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="2" borderId="1" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="2" borderId="2" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="2" borderId="4" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="2" borderId="2" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="2" borderId="4" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="2" borderId="1" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="2" borderId="2" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="2" borderId="4" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1921,865 +1856,485 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="F21" sqref="F1:F1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" customWidth="1" width="11.777778"/>
-    <col min="2" max="2" customWidth="1" width="11.777778"/>
-    <col min="3" max="3" customWidth="1" width="14.666667"/>
-    <col min="4" max="4" customWidth="1" width="6.444444"/>
-    <col min="5" max="5" customWidth="1" width="9.777778"/>
-    <col min="6" max="6" customWidth="1" width="6.222222"/>
-    <col min="7" max="7" customWidth="1" width="8.666667"/>
-    <col min="8" max="8" customWidth="1" width="6.666667"/>
-    <col min="9" max="9" customWidth="1" width="7.333333"/>
-    <col min="10" max="10" customWidth="1" width="9.333333"/>
-    <col min="11" max="11" customWidth="1" width="2.444444"/>
-    <col min="12" max="12" customWidth="1" width="16.222222"/>
-    <col min="13" max="13" customWidth="1" width="44.222222"/>
-    <col min="14" max="14" customWidth="1" width="3.111111"/>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.5" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" customWidth="1"/>
+    <col min="9" max="9" width="44.1640625" customWidth="1"/>
+    <col min="10" max="10" width="3.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17" customHeight="1">
+    <row r="1" spans="1:8" ht="17" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0"/>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-      <c r="G1" s="0"/>
-      <c r="H1" s="0"/>
-      <c r="I1" s="0"/>
-      <c r="J1" s="0"/>
-      <c r="K1" s="0"/>
-      <c r="L1" s="0"/>
-      <c r="M1" s="0"/>
-      <c r="N1" s="0"/>
-    </row>
-    <row r="2" spans="1:14" ht="17" customHeight="1">
+    </row>
+    <row r="2" spans="1:8" ht="17" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
-      <c r="I2" s="0"/>
-      <c r="J2" s="0"/>
-      <c r="K2" s="0"/>
-      <c r="L2" s="0"/>
-      <c r="M2" s="0"/>
-      <c r="N2" s="0"/>
-    </row>
-    <row r="3" spans="1:14" ht="14" customHeight="1">
-      <c r="A3" s="0" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="14" customHeight="1">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0"/>
-      <c r="C3" s="0"/>
-      <c r="D3" s="0"/>
-      <c r="E3" s="0"/>
-      <c r="F3" s="0"/>
-      <c r="G3" s="0"/>
-      <c r="H3" s="0"/>
-      <c r="I3" s="0"/>
-      <c r="J3" s="0"/>
-      <c r="K3" s="0"/>
-      <c r="L3" s="0"/>
-      <c r="M3" s="0"/>
-      <c r="N3" s="0"/>
-    </row>
-    <row r="4" spans="1:14" ht="24" customHeight="1">
+    </row>
+    <row r="4" spans="1:8" ht="24" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" ht="74" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="4" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7" t="s">
+      <c r="E5" s="18"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" ht="13" customHeight="1">
+      <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="0"/>
-      <c r="L4" s="0"/>
-      <c r="M4" s="0"/>
-      <c r="N4" s="0"/>
-    </row>
-    <row r="5" spans="1:14" ht="74" customHeight="1">
-      <c r="A5" s="2" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="14" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="62" customHeight="1">
+      <c r="A9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="262" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="7" t="s">
+      <c r="G10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="14" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="14" customHeight="1">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="7" t="s">
+    </row>
+    <row r="13" spans="1:8" ht="62" customHeight="1">
+      <c r="A13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="0"/>
-      <c r="L5" s="0"/>
-      <c r="M5" s="0"/>
-      <c r="N5" s="0"/>
-    </row>
-    <row r="6" spans="1:14" ht="13" customHeight="1">
-      <c r="A6" s="10" t="s">
+      <c r="B13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="C13" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="11" t="s">
+      <c r="D13" s="24"/>
+      <c r="E13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="7" t="s">
+      <c r="F13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="7" t="s">
+      <c r="G13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="0"/>
-      <c r="L6" s="0"/>
-      <c r="M6" s="0"/>
-      <c r="N6" s="0"/>
-    </row>
-    <row r="7" spans="1:14" ht="14" customHeight="1">
-      <c r="A7" s="1" t="s">
+      <c r="H13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
-      <c r="I7" s="0"/>
-      <c r="J7" s="0"/>
-      <c r="K7" s="0"/>
-      <c r="L7" s="0"/>
-      <c r="M7" s="0"/>
-      <c r="N7" s="0"/>
-    </row>
-    <row r="8" spans="1:14" ht="14" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0"/>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-    </row>
-    <row r="9" spans="1:14" ht="62" customHeight="1">
-      <c r="A9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17" t="s">
+    </row>
+    <row r="14" spans="1:8" ht="274" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="262" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="262" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14" customHeight="1">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="14" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="14" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="62" customHeight="1">
+      <c r="A20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="24"/>
+      <c r="E20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="14" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="14" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="62" customHeight="1">
+      <c r="A23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="E23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="14" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="14" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="62" customHeight="1">
+      <c r="A26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="24"/>
+      <c r="E26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="250" customHeight="1">
+      <c r="A27" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" s="0"/>
-      <c r="N9" s="0"/>
-    </row>
-    <row r="10" spans="1:14" ht="262" customHeight="1">
-      <c r="A10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="24" t="s">
+      <c r="D27" s="26"/>
+      <c r="E27" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="14" customHeight="1">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="14" customHeight="1">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="62" customHeight="1">
+      <c r="A30" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="25"/>
-      <c r="L10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="0"/>
-      <c r="N10" s="0"/>
-    </row>
-    <row r="11" spans="1:14" ht="14" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="0"/>
-      <c r="C11" s="0"/>
-      <c r="D11" s="0"/>
-      <c r="E11" s="0"/>
-      <c r="F11" s="0"/>
-      <c r="G11" s="0"/>
-      <c r="H11" s="0"/>
-      <c r="I11" s="0"/>
-      <c r="J11" s="0"/>
-      <c r="K11" s="0"/>
-      <c r="L11" s="0"/>
-      <c r="M11" s="0"/>
-      <c r="N11" s="0"/>
-    </row>
-    <row r="12" spans="1:14" ht="14" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="0"/>
-      <c r="C12" s="0"/>
-      <c r="D12" s="0"/>
-      <c r="E12" s="0"/>
-      <c r="F12" s="0"/>
-      <c r="G12" s="0"/>
-      <c r="H12" s="0"/>
-      <c r="I12" s="0"/>
-      <c r="J12" s="0"/>
-      <c r="K12" s="0"/>
-      <c r="L12" s="0"/>
-      <c r="M12" s="0"/>
-      <c r="N12" s="0"/>
-    </row>
-    <row r="13" spans="1:14" ht="62" customHeight="1">
-      <c r="A13" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17" t="s">
+      <c r="D30" s="24"/>
+      <c r="E30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="249" customHeight="1">
+      <c r="A31" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="M13" s="0"/>
-      <c r="N13" s="0"/>
-    </row>
-    <row r="14" spans="1:14" ht="274" customHeight="1">
-      <c r="A14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="22"/>
-      <c r="J14" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="22"/>
-      <c r="L14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M14" s="0"/>
-      <c r="N14" s="0"/>
-    </row>
-    <row r="15" spans="1:14" ht="262" customHeight="1">
-      <c r="A15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="K15" s="22"/>
-      <c r="L15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M15" s="0"/>
-      <c r="N15" s="0"/>
-    </row>
-    <row r="16" spans="1:14" ht="262" customHeight="1">
-      <c r="A16" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="K16" s="22"/>
-      <c r="L16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M16" s="0"/>
-      <c r="N16" s="0"/>
-    </row>
-    <row r="17" spans="1:14" ht="14" customHeight="1">
-      <c r="A17" s="0" t="s">
+      <c r="D31" s="26"/>
+      <c r="E31" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="249" customHeight="1">
+      <c r="A32" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="26"/>
+      <c r="E32" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="0"/>
-      <c r="C17" s="0"/>
-      <c r="D17" s="0"/>
-      <c r="E17" s="0"/>
-      <c r="F17" s="0"/>
-      <c r="G17" s="0"/>
-      <c r="H17" s="0"/>
-      <c r="I17" s="0"/>
-      <c r="J17" s="0"/>
-      <c r="K17" s="0"/>
-      <c r="L17" s="0"/>
-      <c r="M17" s="0"/>
-      <c r="N17" s="0"/>
-    </row>
-    <row r="18" spans="1:14" ht="14" customHeight="1">
-      <c r="A18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="0"/>
-      <c r="C18" s="0"/>
-      <c r="D18" s="0"/>
-      <c r="E18" s="0"/>
-      <c r="F18" s="0"/>
-      <c r="G18" s="0"/>
-      <c r="H18" s="0"/>
-      <c r="I18" s="0"/>
-      <c r="J18" s="0"/>
-      <c r="K18" s="0"/>
-      <c r="L18" s="0"/>
-      <c r="M18" s="0"/>
-      <c r="N18" s="0"/>
-    </row>
-    <row r="19" spans="1:14" ht="14" customHeight="1">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="0"/>
-      <c r="C19" s="0"/>
-      <c r="D19" s="0"/>
-      <c r="E19" s="0"/>
-      <c r="F19" s="0"/>
-      <c r="G19" s="0"/>
-      <c r="H19" s="0"/>
-      <c r="I19" s="0"/>
-      <c r="J19" s="0"/>
-      <c r="K19" s="0"/>
-      <c r="L19" s="0"/>
-      <c r="M19" s="0"/>
-      <c r="N19" s="0"/>
-    </row>
-    <row r="20" spans="1:14" ht="62" customHeight="1">
-      <c r="A20" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="16"/>
-      <c r="J20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K20" s="6"/>
-      <c r="L20" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="M20" s="0"/>
-      <c r="N20" s="0"/>
-    </row>
-    <row r="21" spans="1:14" ht="14" customHeight="1">
-      <c r="A21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="0"/>
-      <c r="C21" s="0"/>
-      <c r="D21" s="0"/>
-      <c r="E21" s="0"/>
-      <c r="F21" s="0"/>
-      <c r="G21" s="0"/>
-      <c r="H21" s="0"/>
-      <c r="I21" s="0"/>
-      <c r="J21" s="0"/>
-      <c r="K21" s="0"/>
-      <c r="L21" s="0"/>
-      <c r="M21" s="0"/>
-      <c r="N21" s="0"/>
-    </row>
-    <row r="22" spans="1:14" ht="14" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="0"/>
-      <c r="C22" s="0"/>
-      <c r="D22" s="0"/>
-      <c r="E22" s="0"/>
-      <c r="F22" s="0"/>
-      <c r="G22" s="0"/>
-      <c r="H22" s="0"/>
-      <c r="I22" s="0"/>
-      <c r="J22" s="0"/>
-      <c r="K22" s="0"/>
-      <c r="L22" s="0"/>
-      <c r="M22" s="0"/>
-      <c r="N22" s="0"/>
-    </row>
-    <row r="23" spans="1:14" ht="62" customHeight="1">
-      <c r="A23" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I23" s="16"/>
-      <c r="J23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K23" s="6"/>
-      <c r="L23" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="M23" s="0"/>
-      <c r="N23" s="0"/>
-    </row>
-    <row r="24" spans="1:14" ht="14" customHeight="1">
-      <c r="A24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="0"/>
-      <c r="C24" s="0"/>
-      <c r="D24" s="0"/>
-      <c r="E24" s="0"/>
-      <c r="F24" s="0"/>
-      <c r="G24" s="0"/>
-      <c r="H24" s="0"/>
-      <c r="I24" s="0"/>
-      <c r="J24" s="0"/>
-      <c r="K24" s="0"/>
-      <c r="L24" s="0"/>
-      <c r="M24" s="0"/>
-      <c r="N24" s="0"/>
-    </row>
-    <row r="25" spans="1:14" ht="14" customHeight="1">
-      <c r="A25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="0"/>
-      <c r="C25" s="0"/>
-      <c r="D25" s="0"/>
-      <c r="E25" s="0"/>
-      <c r="F25" s="0"/>
-      <c r="G25" s="0"/>
-      <c r="H25" s="0"/>
-      <c r="I25" s="0"/>
-      <c r="J25" s="0"/>
-      <c r="K25" s="0"/>
-      <c r="L25" s="0"/>
-      <c r="M25" s="0"/>
-      <c r="N25" s="0"/>
-    </row>
-    <row r="26" spans="1:14" ht="62" customHeight="1">
-      <c r="A26" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I26" s="16"/>
-      <c r="J26" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K26" s="6"/>
-      <c r="L26" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="M26" s="0"/>
-      <c r="N26" s="0"/>
-    </row>
-    <row r="27" spans="1:14" ht="250" customHeight="1">
-      <c r="A27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="22"/>
-      <c r="H27" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="I27" s="22"/>
-      <c r="J27" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="K27" s="25"/>
-      <c r="L27" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M27" s="0"/>
-      <c r="N27" s="0"/>
-    </row>
-    <row r="28" spans="1:14" ht="14" customHeight="1">
-      <c r="A28" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="0"/>
-      <c r="C28" s="0"/>
-      <c r="D28" s="0"/>
-      <c r="E28" s="0"/>
-      <c r="F28" s="0"/>
-      <c r="G28" s="0"/>
-      <c r="H28" s="0"/>
-      <c r="I28" s="0"/>
-      <c r="J28" s="0"/>
-      <c r="K28" s="0"/>
-      <c r="L28" s="0"/>
-      <c r="M28" s="0"/>
-      <c r="N28" s="0"/>
-    </row>
-    <row r="29" spans="1:14" ht="14" customHeight="1">
-      <c r="A29" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="0"/>
-      <c r="C29" s="0"/>
-      <c r="D29" s="0"/>
-      <c r="E29" s="0"/>
-      <c r="F29" s="0"/>
-      <c r="G29" s="0"/>
-      <c r="H29" s="0"/>
-      <c r="I29" s="0"/>
-      <c r="J29" s="0"/>
-      <c r="K29" s="0"/>
-      <c r="L29" s="0"/>
-      <c r="M29" s="0"/>
-      <c r="N29" s="0"/>
-    </row>
-    <row r="30" spans="1:14" ht="62" customHeight="1">
-      <c r="A30" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I30" s="16"/>
-      <c r="J30" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K30" s="6"/>
-      <c r="L30" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="M30" s="0"/>
-      <c r="N30" s="0"/>
-    </row>
-    <row r="31" spans="1:14" ht="249" customHeight="1">
-      <c r="A31" s="7" t="s">
+      <c r="F32" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="17" t="s">
+      <c r="G32" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="22"/>
-      <c r="F31" s="21" t="s">
+      <c r="H32" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G31" s="22"/>
-      <c r="H31" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="I31" s="22"/>
-      <c r="J31" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="K31" s="25"/>
-      <c r="L31" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="M31" s="0"/>
-      <c r="N31" s="0"/>
-    </row>
-    <row r="32" spans="1:14" ht="249" customHeight="1">
-      <c r="A32" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="22"/>
-      <c r="F32" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="G32" s="22"/>
-      <c r="H32" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="I32" s="22"/>
-      <c r="J32" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="K32" s="25"/>
-      <c r="L32" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="M32" s="0"/>
-      <c r="N32" s="0"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
+  <mergeCells count="19">
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>